--- a/framework/datasource/WorkFlow.xlsx
+++ b/framework/datasource/WorkFlow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Periods" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -85,15 +85,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>2014-08-31</t>
-  </si>
-  <si>
-    <t>2014-08-29</t>
-  </si>
-  <si>
-    <t>2014-08-28</t>
-  </si>
-  <si>
     <t>ci</t>
   </si>
   <si>
@@ -119,6 +110,9 @@
   </si>
   <si>
     <t>78951622</t>
+  </si>
+  <si>
+    <t>2015-10-10</t>
   </si>
 </sst>
 </file>
@@ -166,9 +160,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -452,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,35 +464,35 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
+      <c r="A2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
+      <c r="A3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -512,44 +506,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -557,6 +551,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
